--- a/EX10.xlsx
+++ b/EX10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF06483-342F-4FE8-A29F-8568D8BFF91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51540413-3E98-4E48-8046-06B0F415CB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,9 +742,6 @@
       <c r="L11">
         <v>22.5</v>
       </c>
-      <c r="N11">
-        <v>240</v>
-      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -767,9 +764,6 @@
       </c>
       <c r="G12">
         <v>15</v>
-      </c>
-      <c r="N12">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/EX10.xlsx
+++ b/EX10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achita\สมัครเรียนปริญญาโท\ปี1 เทอม1\CVE660\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51540413-3E98-4E48-8046-06B0F415CB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1A39DF-DF68-423D-8459-0DC6B99F61A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CFC711E1-F895-4B08-BF73-620E5CC90764}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Depth, m</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>SS-9</t>
+  </si>
+  <si>
+    <t>SS-10</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C815177A-254B-43AF-87E3-B3FBD101C2A0}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +621,9 @@
       <c r="D6">
         <v>6.5</v>
       </c>
+      <c r="E6">
+        <v>1.7</v>
+      </c>
       <c r="N6">
         <v>11</v>
       </c>
@@ -678,6 +684,9 @@
       <c r="D9">
         <v>11.3</v>
       </c>
+      <c r="E9">
+        <v>1.8</v>
+      </c>
       <c r="H9">
         <v>41</v>
       </c>
@@ -704,6 +713,9 @@
       <c r="D10">
         <v>14.2</v>
       </c>
+      <c r="E10">
+        <v>1.8</v>
+      </c>
       <c r="L10">
         <v>22.5</v>
       </c>
@@ -742,6 +754,9 @@
       <c r="L11">
         <v>22.5</v>
       </c>
+      <c r="N11">
+        <v>240</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -764,6 +779,26 @@
       </c>
       <c r="G12">
         <v>15</v>
+      </c>
+      <c r="N12">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>9.1</v>
+      </c>
+      <c r="E13">
+        <v>1.9</v>
+      </c>
+      <c r="N13">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
